--- a/tables/Table1_catch_share_programs.xlsx
+++ b/tables/Table1_catch_share_programs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51F9EC-F733-6B45-8372-33589C2B9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39059CBB-47C8-5446-8CCC-A0BFD864322F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="980" windowWidth="28040" windowHeight="17440" xr2:uid="{E4C86FEC-0921-E84B-A89D-6D29A79ED6F6}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,10 +543,10 @@
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="74.5" style="2" bestFit="1" customWidth="1"/>
@@ -554,7 +554,7 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="17" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,13 +562,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="17" thickTop="1">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
@@ -576,12 +576,12 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -589,7 +589,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -597,12 +597,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -618,12 +618,12 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -631,12 +631,12 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
@@ -644,7 +644,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -652,12 +652,12 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -665,7 +665,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
@@ -673,12 +673,12 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -702,7 +702,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
@@ -710,7 +710,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
@@ -718,7 +718,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3">
       <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
@@ -742,7 +742,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>

--- a/tables/Table1_catch_share_programs.xlsx
+++ b/tables/Table1_catch_share_programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39059CBB-47C8-5446-8CCC-A0BFD864322F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A77AEC-977E-564F-88A1-830097350015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="980" windowWidth="28040" windowHeight="17440" xr2:uid="{E4C86FEC-0921-E84B-A89D-6D29A79ED6F6}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -50,9 +39,6 @@
     <t>Atlantic Sea Scallops IFQ</t>
   </si>
   <si>
-    <t>New England Multispecies Sectoris</t>
-  </si>
-  <si>
     <t>Mid-Atlantic</t>
   </si>
   <si>
@@ -68,9 +54,6 @@
     <t>Pacific Sablefish Permit Stacking</t>
   </si>
   <si>
-    <t>West Coast Grounfish Trawl Rationalization</t>
-  </si>
-  <si>
     <t>North Pacific</t>
   </si>
   <si>
@@ -120,6 +103,12 @@
   </si>
   <si>
     <t>Pacific Cod Trawl Cooperative Program</t>
+  </si>
+  <si>
+    <t>West Coast Groundfish Trawl Rationalization</t>
+  </si>
+  <si>
+    <t>New England Multispecies Sectors</t>
   </si>
 </sst>
 </file>
@@ -543,7 +532,7 @@
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -564,13 +553,13 @@
     </row>
     <row r="3" spans="2:3" ht="17" thickTop="1">
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>2015</v>
@@ -591,7 +580,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>2010</v>
@@ -599,12 +588,12 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>1990</v>
@@ -612,7 +601,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>2009</v>
@@ -620,12 +609,12 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>1991</v>
@@ -633,12 +622,12 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>2007</v>
@@ -646,7 +635,7 @@
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>2010</v>
@@ -654,12 +643,12 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
         <v>2001</v>
@@ -667,7 +656,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>2011</v>
@@ -675,12 +664,12 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>1992</v>
@@ -688,7 +677,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>1995</v>
@@ -696,7 +685,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>1999</v>
@@ -704,7 +693,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>2000</v>
@@ -712,7 +701,7 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>2005</v>
@@ -720,7 +709,7 @@
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>2005</v>
@@ -728,7 +717,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>2008</v>
@@ -736,7 +725,7 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
         <v>2011</v>
@@ -744,7 +733,7 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <v>2024</v>
